--- a/01_Input/00_CO Validation/Belize - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Belize - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="261" documentId="11_EFC879A247DD21CC94E376D088FBAA3EF828F4FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E262B78F-4FFD-4223-9ACB-B496635B40EF}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="11_EFC879A247DD21CC94E376D088FBAA3EF828F4FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C3D2571-A2A7-4AB1-BBFA-A4EB2635C9D6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
   <si>
     <t>Project ID</t>
   </si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>FCDO, GAC</t>
+  </si>
+  <si>
+    <t>missing-countryCode-1</t>
   </si>
   <si>
     <t>Photovoltaics in Punta Negra- Accessing Low Carbon Energy.</t>
@@ -657,7 +663,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -783,6 +789,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AC88E2-6775-45F4-8522-8AE38D4DD049}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,10 +1180,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="35" customFormat="1" ht="409.6">
-      <c r="A2" s="44">
+      <c r="A2" s="57">
         <v>137462</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="41" t="s">
@@ -1212,8 +1224,8 @@
       <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:18" ht="121.5">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="8" t="s">
@@ -1242,8 +1254,8 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="60.75">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="8" t="s">
@@ -1272,8 +1284,8 @@
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="198">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="8" t="s">
@@ -1302,8 +1314,8 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="76.5">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
@@ -1368,9 +1380,11 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="45.75">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="B8" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="13">
@@ -1380,21 +1394,21 @@
         <v>27</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="43"/>
       <c r="N8" s="11"/>
@@ -1404,10 +1418,6 @@
       <c r="R8" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{775C9FD6-08C3-47B7-9D71-B0AFCC2AAE68}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
@@ -1448,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF400BC-AC2B-4F4D-A490-BED43F5A69F5}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,7 +1510,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="35" customFormat="1" ht="91.5">
@@ -1520,14 +1530,14 @@
         <v>20</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>24</v>
@@ -1547,20 +1557,20 @@
         <v>20</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="16">
         <v>0</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="22"/>
       <c r="K3" s="11"/>
       <c r="L3" s="47"/>
       <c r="M3" s="49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="275.25">
@@ -1570,7 +1580,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
@@ -1593,7 +1603,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -1614,14 +1624,14 @@
       <c r="D6" s="11"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="11"/>
@@ -1658,13 +1668,13 @@
       <c r="D8" s="11"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="16"/>
@@ -1683,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="36">
         <v>1300</v>
@@ -1700,7 +1710,7 @@
       <c r="C10" s="11"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
@@ -1730,7 +1740,7 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="11"/>
@@ -1744,7 +1754,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="11">
         <v>0</v>
@@ -1794,7 +1804,7 @@
     <row r="14" spans="1:13" ht="45.75">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13">
@@ -1804,21 +1814,21 @@
         <v>27</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="34"/>
     </row>
@@ -1914,17 +1924,17 @@
         <v>31</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="76.5">
@@ -1936,13 +1946,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1956,7 +1966,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
@@ -1976,13 +1986,13 @@
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1996,13 +2006,13 @@
         <v>28</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -2036,13 +2046,13 @@
         <v>31</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -2056,13 +2066,13 @@
         <v>31</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -2076,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
@@ -2099,10 +2109,10 @@
         <v>38</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2116,10 +2126,10 @@
         <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="11">
         <v>2</v>
@@ -2158,7 +2168,7 @@
     <row r="14" spans="1:10" ht="45.75">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13">
@@ -2168,7 +2178,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -2178,7 +2188,7 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2220,80 +2230,80 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="52"/>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="52"/>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="53"/>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="53"/>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="53"/>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2302,78 +2312,78 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="54"/>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="55"/>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2388,26 +2398,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2656,8 +2646,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6721977-4116-443B-B0AB-87114B39648A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A1EEB8-1089-4E68-BE6E-C01EB89D33D5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2665,5 +2675,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A1EEB8-1089-4E68-BE6E-C01EB89D33D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6721977-4116-443B-B0AB-87114B39648A}"/>
 </file>
--- a/01_Input/00_CO Validation/Belize - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Belize - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_EFC879A247DD21CC94E376D088FBAA3EF828F4FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C3D2571-A2A7-4AB1-BBFA-A4EB2635C9D6}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="11_EFC879A247DD21CC94E376D088FBAA3EF828F4FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59FE1AC-DEEE-4EA4-9EA4-168EC0D6A74B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -90,13 +90,19 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>Piloting e-mobility within Belize’s Public Transport Sys</t>
   </si>
   <si>
     <t>http://open.undp.org/projects/00137462</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t>1.1: Existence of National Strategy guiding transport sector transformation
@@ -121,10 +127,19 @@
     <t>Close the gap on energy access</t>
   </si>
   <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>National Strategy</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of national functionaries and operators trained in areas of fleet operations and management and monitoring (including number of women)</t>
@@ -133,7 +148,7 @@
     <t>1.3 Established Community of Practice facilitating experience and knowledge exchange -&gt; need number of people benefiting</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>Transportation and E-mobility Services</t>
   </si>
   <si>
     <t>2.1: Number of users of e-mobility services and vehicles under the pilot </t>
@@ -163,9 +178,15 @@
 3.2 Number of business model and financing mechanisms in place -&gt; 2</t>
   </si>
   <si>
+    <t>Financing Model</t>
+  </si>
+  <si>
     <t xml:space="preserve">Engender </t>
   </si>
   <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
     <t>Number of beneficiaries with access to clean reliable source of energy</t>
   </si>
   <si>
@@ -187,7 +208,7 @@
     <t>GF</t>
   </si>
   <si>
-    <t>VF</t>
+    <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
@@ -212,6 +233,9 @@
     <t>1.2 - Qualitative rating of Belize’s institutional capacity to promote the uptake of low-carbon electric mobility (1 to 4). Milestones for rating levels (1 to 4) are: 1 = e-mobility policy approved by IP; 2 = e-mobility policy adopted by GOB sector ministries; 3 = e-mobility Technical Standards formally adopted; 4 = action plan with market incentives in place.</t>
   </si>
   <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
     <t>1.2.1 Number of national functionaries and operators trained in areas of fleet operations and management and monitoring (including number of women)</t>
   </si>
   <si>
@@ -222,6 +246,9 @@
 national institution ensuring sustainability </t>
   </si>
   <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
     <t>2.1.1 Extent of integration of piloted electric buses within the public transportation sector</t>
   </si>
   <si>
@@ -241,6 +268,9 @@
     <t>3.2 Number of business model and financing mechanisms in place</t>
   </si>
   <si>
+    <t>VF</t>
+  </si>
+  <si>
     <t>European Union</t>
   </si>
   <si>
@@ -268,61 +298,73 @@
     <t xml:space="preserve"> none existing</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -337,10 +379,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -349,16 +388,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -371,12 +413,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,19 +471,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,42 +492,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,21 +518,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -655,146 +651,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1101,66 +1110,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AC88E2-6775-45F4-8522-8AE38D4DD049}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="38" t="s">
@@ -1169,270 +1182,336 @@
       <c r="O1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="35" customFormat="1" ht="409.6">
-      <c r="A2" s="57">
+      <c r="S1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="32" customFormat="1" ht="305.25">
+      <c r="A2" s="37">
         <v>137462</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="24">
+        <v>5244326.91</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="27">
-        <v>5244326.91</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="42" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="J2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-    </row>
-    <row r="3" spans="1:18" ht="121.5">
-      <c r="A3" s="57"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="O2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="11">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="46"/>
+      <c r="T2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="46"/>
+    </row>
+    <row r="3" spans="1:21" ht="91.5">
+      <c r="A3" s="37"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <v>50</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" ht="60.75">
-      <c r="A4" s="57"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8" t="s">
+      <c r="I3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="46"/>
+    </row>
+    <row r="4" spans="1:21" ht="45.75">
+      <c r="A4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1500</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="46"/>
+    </row>
+    <row r="5" spans="1:21" ht="137.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="33">
+        <v>1300</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="46"/>
+    </row>
+    <row r="6" spans="1:21" ht="76.5">
+      <c r="A6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="S6" s="46"/>
+      <c r="T6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="11">
+      <c r="U6" s="46"/>
+    </row>
+    <row r="7" spans="1:21" ht="45.75">
+      <c r="A7" s="8">
+        <v>118209</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10">
+        <v>120000</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
-        <v>1500</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" ht="198">
-      <c r="A5" s="57"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="36">
-        <v>1300</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" ht="76.5">
-      <c r="A6" s="57"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="H7" s="8">
+        <v>200</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="46"/>
+    </row>
+    <row r="8" spans="1:21" ht="45.75">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" ht="60.75">
-      <c r="A7" s="11">
-        <v>118209</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13">
-        <v>120000</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>200</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" ht="45.75">
-      <c r="A8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13">
-        <v>50000</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="46"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{775C9FD6-08C3-47B7-9D71-B0AFCC2AAE68}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{EF331ED5-D4B9-4E62-BBCD-3159759C8664}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{EF331ED5-D4B9-4E62-BBCD-3159759C8664}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{FD5F5EBF-155B-4C0A-98A1-3C278A9F0CE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{FD5F5EBF-155B-4C0A-98A1-3C278A9F0CE0}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{664CDCD0-E73F-4C46-AEBA-3A5D74C5D386}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N8" xr:uid="{0E8C3527-9E31-4F2A-9670-2DAFC82BD4A0}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{0E8C3527-9E31-4F2A-9670-2DAFC82BD4A0}">
-      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{BC7F3710-C4AF-49A5-8CC5-87354FA4D416}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L8" xr:uid="{9D6D6DDC-A2BE-4B6E-B5A5-4A0EA9B8298E}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{105B2F87-04CD-48D1-87D5-F9C60885C93C}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8" xr:uid="{D4E67B92-5CB9-4376-A868-7FF3A1FCA0AB}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{5A8742DC-66AB-4332-9C2D-4E085A613239}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{C142BE6B-123B-4A38-9C7C-47401F0A2660}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1444,7 +1523,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{307865DC-FA9A-43AE-9871-DC9468E94E7D}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
@@ -1458,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF400BC-AC2B-4F4D-A490-BED43F5A69F5}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1473,364 +1552,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="91.5">
+      <c r="A2" s="47">
+        <v>137462</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="24">
+        <v>5244326.91</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="76.5">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="275.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>4</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" ht="121.5">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>50</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="76.5">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="60.75">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" ht="76.5">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" ht="198">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1300</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:13" ht="60.75">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" ht="45.75">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" ht="60.75">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" ht="60.75">
+      <c r="A13" s="8">
+        <v>118209</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10">
+        <v>120000</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>200</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="35" customFormat="1" ht="91.5">
-      <c r="A2" s="44">
-        <v>137462</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="27">
-        <v>5244326.91</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" ht="45.75">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="1:13" ht="76.5">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="10">
+        <v>50000</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="49" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="275.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24">
-        <v>4</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" ht="121.5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>50</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:13" ht="76.5">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="1:13" ht="60.75">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1500</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="50"/>
-    </row>
-    <row r="8" spans="1:13" ht="76.5">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="50"/>
-    </row>
-    <row r="9" spans="1:13" ht="198">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="11"/>
-      <c r="E9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="36">
-        <v>1300</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="50"/>
-    </row>
-    <row r="10" spans="1:13" ht="60.75">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="50"/>
-    </row>
-    <row r="11" spans="1:13" ht="45.75">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="50"/>
-    </row>
-    <row r="12" spans="1:13" ht="60.75">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="60.75">
-      <c r="A13" s="11">
-        <v>118209</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13">
-        <v>120000</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>200</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:13" ht="45.75">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13">
-        <v>50000</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="34"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1848,9 +1927,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CA79536-2336-4B31-909B-DC932AA0C420}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E14 E9</xm:sqref>
+          <xm:sqref>E2:E14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1876,319 +1955,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="91.5">
-      <c r="A2" s="44">
+      <c r="A2" s="47">
         <v>137462</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4">
         <v>5244326.91</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="76.5">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="275.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="121.5">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="137.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="60.75">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="76.5">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="137.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="60.75">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="60.75">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="60.75">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="60.75">
+      <c r="A13" s="8">
+        <v>118209</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10">
+        <v>120000</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>200</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45.75">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="76.5">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="10">
+        <v>50000</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="275.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>4</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="121.5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="137.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="60.75">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1500</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="76.5">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="137.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="60.75">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="60.75">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="60.75">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="60.75">
-      <c r="A13" s="11">
-        <v>118209</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13">
-        <v>120000</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>200</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45.75">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13">
-        <v>50000</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>75</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>47</v>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2284,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E14</xm:sqref>
         </x14:dataValidation>
@@ -2217,187 +2296,219 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="52"/>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="52"/>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B1" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="53"/>
-      <c r="B6" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B3" s="40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="53"/>
-      <c r="B7" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B4" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="53"/>
-      <c r="B8" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B5" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="53"/>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="55" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="54" t="s">
+      <c r="B6" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B7" s="40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="54"/>
-      <c r="B11" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B8" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="55"/>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="55"/>
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B12" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B14" s="56" t="s">
         <v>106</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2646,28 +2757,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A1EEB8-1089-4E68-BE6E-C01EB89D33D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6721977-4116-443B-B0AB-87114B39648A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2675,5 +2766,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6721977-4116-443B-B0AB-87114B39648A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A1EEB8-1089-4E68-BE6E-C01EB89D33D5}"/>
 </file>
--- a/01_Input/00_CO Validation/Belize - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Belize - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="328" documentId="11_EFC879A247DD21CC94E376D088FBAA3EF828F4FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59FE1AC-DEEE-4EA4-9EA4-168EC0D6A74B}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_EFC879A247DD21CC94E376D088FBAA3EF828F4FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCFB2C19-F4EC-4394-8538-366665452604}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
   <si>
     <t>Project ID</t>
   </si>
@@ -157,7 +157,7 @@
     <t>2.1.1 Extent of integration of piloted 5 electric buses within the public transportation sector</t>
   </si>
   <si>
-    <t>GHG Emission Reduction</t>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t>metric tons of emission avoidance per year
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>5 buses</t>
+  </si>
+  <si>
+    <t>GHG Emission Reduction</t>
   </si>
   <si>
     <t>n/a</t>
@@ -1110,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AC88E2-6775-45F4-8522-8AE38D4DD049}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1329,7 +1332,7 @@
       <c r="B5" s="36"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1483,6 +1486,11 @@
       <c r="S8" s="46"/>
       <c r="T8" s="34"/>
       <c r="U8" s="46"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="9">
@@ -1525,7 +1533,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E8</xm:sqref>
+          <xm:sqref>E2:E4 E6:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1766,13 +1774,13 @@
       <c r="B9" s="48"/>
       <c r="C9" s="8"/>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="33">
         <v>1300</v>
@@ -1789,7 +1797,7 @@
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1819,7 +1827,7 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="8"/>
@@ -1833,7 +1841,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1907,7 +1915,7 @@
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="31"/>
     </row>
@@ -2013,7 +2021,7 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="76.5">
@@ -2031,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2071,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2088,10 +2096,10 @@
         <v>65</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -2145,13 +2153,13 @@
         <v>67</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2165,7 +2173,7 @@
         <v>67</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -2188,10 +2196,10 @@
         <v>43</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2205,10 +2213,10 @@
         <v>67</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" s="8">
         <v>2</v>
@@ -2320,63 +2328,63 @@
         <v>47</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
@@ -2384,23 +2392,23 @@
         <v>36</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
@@ -2408,31 +2416,31 @@
         <v>67</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
@@ -2440,31 +2448,31 @@
         <v>33</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
@@ -2472,15 +2480,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2489,28 +2497,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2535,6 +2523,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2614,6 +2603,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2757,8 +2751,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6721977-4116-443B-B0AB-87114B39648A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{286069AA-F5A1-472C-9F2F-D3E047AAF97A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2766,5 +2780,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A1EEB8-1089-4E68-BE6E-C01EB89D33D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6721977-4116-443B-B0AB-87114B39648A}"/>
 </file>